--- a/Franck Hertz/parte_1_actividad_2.xlsx
+++ b/Franck Hertz/parte_1_actividad_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\Séptimo Semestre\Lab Intermedio\Códigos Bitácoras\Laboratorio-Intermedio\Franck Hertz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DCC5B12-912B-4041-BE3F-1ACE76C04A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C539690-83F1-43D2-B62E-800576C5CBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{306BC302-5CCF-498A-882C-D70161D55DDB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="12">
   <si>
     <t>tipo1</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>IA1</t>
-  </si>
-  <si>
-    <t>Voltage U11</t>
-  </si>
-  <si>
-    <t>Corriente IA1</t>
   </si>
   <si>
     <t>máximo</t>
@@ -454,7 +448,7 @@
   <dimension ref="A1:F2458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,15 +464,15 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>12.74</v>
@@ -495,7 +489,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>14.26</v>
@@ -512,7 +506,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>17.260000000000002</v>
@@ -529,7 +523,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>19.309999999999999</v>
@@ -546,7 +540,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>22.05</v>
@@ -563,7 +557,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>24.05</v>
@@ -580,7 +574,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>26.95</v>
@@ -597,7 +591,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>28.96</v>
@@ -614,7 +608,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>31.91</v>
@@ -631,7 +625,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>33.96</v>
@@ -648,7 +642,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>36.97</v>
@@ -665,7 +659,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>39.07</v>
@@ -682,7 +676,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>41.31</v>
@@ -699,7 +693,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>44.02</v>
@@ -20275,24 +20269,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>12.82</v>
@@ -20301,15 +20295,15 @@
         <v>2.71</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>14.48</v>
@@ -20320,7 +20314,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>17.43</v>
@@ -20337,7 +20331,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>19.38</v>
@@ -20354,7 +20348,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>22.22</v>
@@ -20371,7 +20365,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>24.12</v>
@@ -20388,7 +20382,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>27.08</v>
@@ -20405,7 +20399,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>29.03</v>
@@ -20422,7 +20416,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>32.08</v>
@@ -20439,7 +20433,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>34.090000000000003</v>
@@ -20456,7 +20450,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>37.19</v>
@@ -20473,7 +20467,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>39.24</v>
@@ -40081,24 +40075,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>12.55</v>
@@ -40107,15 +40101,15 @@
         <v>4.03</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>14.21</v>
@@ -40126,7 +40120,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>17.11</v>
@@ -40143,7 +40137,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>19.07</v>
@@ -40160,7 +40154,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>21.97</v>
@@ -40177,7 +40171,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>24.02</v>
@@ -40194,7 +40188,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>26.98</v>
@@ -40211,7 +40205,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>28.93</v>
@@ -40228,7 +40222,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>32.08</v>
@@ -40245,7 +40239,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>34.130000000000003</v>
@@ -40262,7 +40256,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>36.19</v>
@@ -40279,7 +40273,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>39.24</v>
